--- a/data/trans_bre/P15_4-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P15_4-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>7,31</t>
+          <t>3,65</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-5,05</t>
+          <t>-0,22</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-6,04</t>
+          <t>1,91</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-13,12</t>
+          <t>-11,06</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>113,09%</t>
+          <t>37,29%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-51,36%</t>
+          <t>-3,42%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-15,34%</t>
+          <t>6,59%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-30,64%</t>
+          <t>-27,26%</t>
         </is>
       </c>
     </row>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-3,23; 17,3</t>
+          <t>-11,11; 19,22</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-15,52; 2,72</t>
+          <t>-13,24; 9,1</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-22,82; 11,9</t>
+          <t>-18,82; 23,37</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-29,59; 3,71</t>
+          <t>-34,18; 10,63</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-40,56; 765,63</t>
+          <t>-73,7; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-91,53; 119,72</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-48,06; 40,71</t>
+          <t>-47,97; 161,13</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-58,25; 12,52</t>
+          <t>-63,74; 44,82</t>
         </is>
       </c>
     </row>
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-12,81</t>
+          <t>-15,89</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-2,76</t>
+          <t>-4,44</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-11,28</t>
+          <t>-10,44</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-3,48</t>
+          <t>4,39</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-61,33%</t>
+          <t>-60,82%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-35,12%</t>
+          <t>-59,1%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-25,24%</t>
+          <t>-20,86%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-9,33%</t>
+          <t>13,05%</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-24,29; -0,99</t>
+          <t>-34,75; 0,27</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-10,74; 4,57</t>
+          <t>-15,53; 3,79</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-30,04; 5,0</t>
+          <t>-36,39; 14,68</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-20,23; 12,8</t>
+          <t>-19,76; 25,89</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-84,34; 1,96</t>
+          <t>-84,36; 14,02</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-84,41; 202,67</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-51,41; 15,23</t>
+          <t>-55,22; 42,17</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-41,59; 42,45</t>
+          <t>-39,16; 123,98</t>
         </is>
       </c>
     </row>
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-5,99</t>
+          <t>-0,2</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-4,17</t>
+          <t>-2,54</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>8,68</t>
+          <t>2,62</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>10,25</t>
+          <t>-5,2</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-27,67%</t>
+          <t>-1,19%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-31,87%</t>
+          <t>-18,27%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>30,81%</t>
+          <t>7,54%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>24,79%</t>
+          <t>-10,19%</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-16,54; 3,04</t>
+          <t>-13,17; 12,24</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-15,8; 3,81</t>
+          <t>-14,01; 7,42</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-3,11; 22,87</t>
+          <t>-12,39; 18,39</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-4,63; 25,94</t>
+          <t>-20,93; 10,43</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-57,42; 21,64</t>
+          <t>-52,52; 136,53</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-71,7; 57,75</t>
+          <t>-67,81; 105,59</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-10,56; 106,44</t>
+          <t>-27,75; 73,64</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-9,41; 84,4</t>
+          <t>-34,53; 25,58</t>
         </is>
       </c>
     </row>
@@ -920,7 +920,7 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-6,06</t>
+          <t>-4,36</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
@@ -930,32 +930,32 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-2,11</t>
+          <t>2,76</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-0,16</t>
+          <t>-4,16</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-28,74%</t>
+          <t>-20,03%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-49,23%</t>
+          <t>-46,42%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-5,86%</t>
+          <t>8,3%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-0,39%</t>
+          <t>-10,61%</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-14,48; 3,33</t>
+          <t>-17,33; 6,57</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-14,62; -0,51</t>
+          <t>-17,49; 1,55</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-13,57; 8,28</t>
+          <t>-12,45; 16,38</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-10,84; 12,24</t>
+          <t>-17,36; 9,49</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-56,15; 23,31</t>
+          <t>-60,52; 46,07</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-76,32; 0,43</t>
+          <t>-80,17; 22,22</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-32,28; 27,12</t>
+          <t>-30,97; 64,61</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-24,18; 37,59</t>
+          <t>-37,48; 29,8</t>
         </is>
       </c>
     </row>
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-0,75</t>
+          <t>-1,48</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,48</t>
+          <t>2,71</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>1,96</t>
+          <t>11,95</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-12,05</t>
+          <t>-23,75</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-5,7%</t>
+          <t>-9,15%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>7,14%</t>
+          <t>31,56%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>8,49%</t>
+          <t>51,87%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-30,68%</t>
+          <t>-51,11%</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-8,92; 7,76</t>
+          <t>-14,0; 11,2</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-5,9; 7,05</t>
+          <t>-7,41; 13,23</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-9,59; 12,33</t>
+          <t>-4,22; 29,45</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-25,24; 1,44</t>
+          <t>-39,81; -4,57</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-53,85; 89,34</t>
+          <t>-66,99; 128,85</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-67,05; 218,04</t>
+          <t>-61,34; 386,92</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-33,47; 69,93</t>
+          <t>-17,95; 183,41</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-55,04; 5,05</t>
+          <t>-72,71; -8,97</t>
         </is>
       </c>
     </row>
@@ -1120,42 +1120,42 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-5,32</t>
+          <t>-1,7</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-2,53</t>
+          <t>-0,25</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-9,9</t>
+          <t>-8,02</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-12,67</t>
+          <t>-9,12</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-40,81%</t>
+          <t>-14,26%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-55,03%</t>
+          <t>-10,7%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-51,84%</t>
+          <t>-42,9%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-52,14%</t>
+          <t>-29,31%</t>
         </is>
       </c>
     </row>
@@ -1168,27 +1168,27 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-15,24; 2,21</t>
+          <t>-16,94; 10,61</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-9,18; 2,0</t>
+          <t>-7,05; 4,25</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-20,42; 0,8</t>
+          <t>-23,02; 7,04</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-24,98; -1,06</t>
+          <t>-28,48; 10,1</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-78,48; 34,84</t>
+          <t>-85,85; 195,84</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
@@ -1198,12 +1198,12 @@
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-80,6; 16,8</t>
+          <t>-82,94; 122,79</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-79,07; -7,97</t>
+          <t>-68,14; 54,35</t>
         </is>
       </c>
     </row>
@@ -1220,42 +1220,42 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-4,34</t>
+          <t>-3,69</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-3,71</t>
+          <t>-2,22</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-2,92</t>
+          <t>0,24</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-5,02</t>
+          <t>-6,44</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-25,78%</t>
+          <t>-20,34%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-37,7%</t>
+          <t>-23,02%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-9,01%</t>
+          <t>0,72%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-13,07%</t>
+          <t>-15,86%</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,49 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-8,5; -0,18</t>
+          <t>-8,96; 1,86</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-7,13; -0,69</t>
+          <t>-6,4; 1,61</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-8,67; 2,58</t>
+          <t>-7,88; 7,36</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-11,78; 1,3</t>
+          <t>-14,46; 1,73</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-43,85; -1,01</t>
+          <t>-42,17; 12,8</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-59,47; -8,05</t>
+          <t>-52,46; 25,41</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-24,72; 8,71</t>
+          <t>-20,72; 25,6</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-27,72; 3,36</t>
+          <t>-31,67; 5,36</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P15_4-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P15_4-Edad-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -618,299 +627,189 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>3,65</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>-0,22</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>1,91</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>-11,06</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>37,29%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>-3,42%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>6,59%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>-27,26%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>3.647250196798999</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>-2.089891343295597</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>-0.729292739974291</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>-9.567058587049655</v>
+      </c>
+      <c r="G4" s="6" t="n">
+        <v>0.3729367056047071</v>
+      </c>
+      <c r="H4" s="6" t="n">
+        <v>-0.2617832493015644</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>-0.0227729576955799</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>-0.2470491242597284</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-11,11; 19,22</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-13,24; 9,1</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-18,82; 23,37</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-34,18; 10,63</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>-73,7; —</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>-47,97; 161,13</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>-63,74; 44,82</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-11.11160640070614</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-18.67727870574824</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-22.52441435168658</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-32.35209650365617</v>
+      </c>
+      <c r="G5" s="6" t="n">
+        <v>-0.7369695912638798</v>
+      </c>
+      <c r="H5" s="6" t="inlineStr"/>
+      <c r="I5" s="6" t="n">
+        <v>-0.537524481616913</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>-0.6246991234191106</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>19.22406955574094</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>6.885482996581429</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>22.12939861245466</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>11.94431834915153</v>
+      </c>
+      <c r="G6" s="6" t="inlineStr"/>
+      <c r="H6" s="6" t="inlineStr"/>
+      <c r="I6" s="6" t="n">
+        <v>1.378334098384815</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>0.5130202328124616</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>25-34</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>-15,89</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>-4,44</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-10,44</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>4,39</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>-60,82%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>-59,1%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>-20,86%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>13,05%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-34,75; 0,27</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-15,53; 3,79</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-36,39; 14,68</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-19,76; 25,89</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>-84,36; 14,02</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-55,22; 42,17</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-39,16; 123,98</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>-15.88908510527098</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>-5.916825217142649</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>-10.72138778146546</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>3.633175300697877</v>
+      </c>
+      <c r="G7" s="6" t="n">
+        <v>-0.6081949432467053</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>-0.6496422504354251</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>-0.2140016579744776</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>0.1068392168657707</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>35-44</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>-0,2</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-2,54</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>2,62</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>-5,2</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>-1,19%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>-18,27%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>7,54%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>-10,19%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-34.7481626513084</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-23.76928410467055</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-35.11832535943935</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-19.64941206514216</v>
+      </c>
+      <c r="G8" s="6" t="n">
+        <v>-0.8435725946097369</v>
+      </c>
+      <c r="H8" s="6" t="inlineStr"/>
+      <c r="I8" s="6" t="n">
+        <v>-0.5480260647814451</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>-0.4028009561338229</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-13,17; 12,24</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-14,01; 7,42</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-12,39; 18,39</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-20,93; 10,43</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>-52,52; 136,53</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-67,81; 105,59</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>-27,75; 73,64</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-34,53; 25,58</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>0.2694985101787925</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>2.36446944263185</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>12.52889255736233</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>24.55664888941906</v>
+      </c>
+      <c r="G9" s="6" t="n">
+        <v>0.1402398397729684</v>
+      </c>
+      <c r="H9" s="6" t="inlineStr"/>
+      <c r="I9" s="6" t="n">
+        <v>0.386377461176292</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>1.089462388153216</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45-54</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -918,299 +817,199 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>-4,36</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>-6,89</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>2,76</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>-4,16</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>-20,03%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>-46,42%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>8,3%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>-10,61%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>-0.2031693096361364</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-5.50790148442443</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>2.011268849448478</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>-4.126589417902488</v>
+      </c>
+      <c r="G10" s="6" t="n">
+        <v>-0.01185505205389326</v>
+      </c>
+      <c r="H10" s="6" t="n">
+        <v>-0.33111862592508</v>
+      </c>
+      <c r="I10" s="6" t="n">
+        <v>0.05811539120089105</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>-0.08143162015294082</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-17,33; 6,57</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-17,49; 1,55</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-12,45; 16,38</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-17,36; 9,49</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>-60,52; 46,07</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>-80,17; 22,22</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>-30,97; 64,61</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>-37,48; 29,8</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-13.17372793677543</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-21.95114610927194</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-12.3452612387053</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-20.80942922811327</v>
+      </c>
+      <c r="G11" s="6" t="n">
+        <v>-0.525158266837536</v>
+      </c>
+      <c r="H11" s="6" t="n">
+        <v>-0.7827147755722003</v>
+      </c>
+      <c r="I11" s="6" t="n">
+        <v>-0.2809328345103707</v>
+      </c>
+      <c r="J11" s="6" t="n">
+        <v>-0.3365303588111312</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>55-64</t>
-        </is>
-      </c>
+      <c r="A12" s="1" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>12.24400697276433</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>5.666889924153735</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>17.71657575165172</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>11.42004279278707</v>
+      </c>
+      <c r="G12" s="6" t="n">
+        <v>1.365272090510304</v>
+      </c>
+      <c r="H12" s="6" t="n">
+        <v>0.7007957329391605</v>
+      </c>
+      <c r="I12" s="6" t="n">
+        <v>0.7497938935598737</v>
+      </c>
+      <c r="J12" s="6" t="n">
+        <v>0.2739376342701076</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>-1,48</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>2,71</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>11,95</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>-23,75</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>-9,15%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>31,56%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>51,87%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>-51,11%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-14,0; 11,2</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-7,41; 13,23</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-4,22; 29,45</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-39,81; -4,57</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>-66,99; 128,85</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>-61,34; 386,92</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>-17,95; 183,41</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>-72,71; -8,97</t>
-        </is>
+      <c r="C13" s="5" t="n">
+        <v>-4.363160217807671</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>-5.672845285810856</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>4.367837469004559</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>-3.889017386380933</v>
+      </c>
+      <c r="G13" s="6" t="n">
+        <v>-0.2003473471355602</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>-0.3875594030084504</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>0.1361788487901755</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>-0.09775014704522059</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>65 Y MAS</t>
-        </is>
-      </c>
+      <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>-1,7</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>-0,25</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>-8,02</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>-9,12</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>-14,26%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>-10,7%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>-42,9%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>-29,31%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-17.33078655395365</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-16.55215648129618</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-10.97059141112176</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-17.82162492898158</v>
+      </c>
+      <c r="G14" s="6" t="n">
+        <v>-0.6051895455201481</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <v>-0.7711523466374678</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>-0.2789482114120339</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>-0.3792022125401489</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>-16,94; 10,61</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>-7,05; 4,25</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>-23,02; 7,04</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>-28,48; 10,1</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>-85,85; 195,84</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>-82,94; 122,79</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>-68,14; 54,35</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>6.573164257738537</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>3.495317160773506</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>18.18198830159188</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>9.431245878411412</v>
+      </c>
+      <c r="G15" s="6" t="n">
+        <v>0.4607152390945399</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <v>0.4703660508130166</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>0.7329385715390642</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>0.3015059476696288</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1218,97 +1017,293 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>-3,69</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>-2,22</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>0,24</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>-6,44</t>
-        </is>
-      </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>-20,34%</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>-23,02%</t>
-        </is>
-      </c>
-      <c r="I16" s="2" t="inlineStr">
-        <is>
-          <t>0,72%</t>
-        </is>
-      </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>-15,86%</t>
-        </is>
+      <c r="C16" s="5" t="n">
+        <v>-1.47735553583043</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>2.322991431330378</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>11.24455728968526</v>
+      </c>
+      <c r="F16" s="5" t="n">
+        <v>-22.92718142215787</v>
+      </c>
+      <c r="G16" s="6" t="n">
+        <v>-0.09149096295663958</v>
+      </c>
+      <c r="H16" s="6" t="n">
+        <v>0.2697879069301881</v>
+      </c>
+      <c r="I16" s="6" t="n">
+        <v>0.506837612632121</v>
+      </c>
+      <c r="J16" s="6" t="n">
+        <v>-0.5015774503644839</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>-8,96; 1,86</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>-6,4; 1,61</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>-7,88; 7,36</t>
-        </is>
-      </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>-14,46; 1,73</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
-        <is>
-          <t>-42,17; 12,8</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>-52,46; 25,41</t>
-        </is>
-      </c>
-      <c r="I17" s="2" t="inlineStr">
-        <is>
-          <t>-20,72; 25,6</t>
-        </is>
-      </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>-31,67; 5,36</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="n">
+        <v>-14.00351881390112</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>-7.532749615505528</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>-4.418522204870072</v>
+      </c>
+      <c r="F17" s="5" t="n">
+        <v>-39.17190916765566</v>
+      </c>
+      <c r="G17" s="6" t="n">
+        <v>-0.6698853008417082</v>
+      </c>
+      <c r="H17" s="6" t="n">
+        <v>-0.6153312260004982</v>
+      </c>
+      <c r="I17" s="6" t="n">
+        <v>-0.1923102173318361</v>
+      </c>
+      <c r="J17" s="6" t="n">
+        <v>-0.7241732006909386</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="n">
+        <v>11.19769553394175</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>12.79476973764017</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>28.00692718000268</v>
+      </c>
+      <c r="F18" s="5" t="n">
+        <v>-2.651400891641423</v>
+      </c>
+      <c r="G18" s="6" t="n">
+        <v>1.288502657468183</v>
+      </c>
+      <c r="H18" s="6" t="n">
+        <v>3.690083158272452</v>
+      </c>
+      <c r="I18" s="6" t="n">
+        <v>1.79228274453462</v>
+      </c>
+      <c r="J18" s="6" t="n">
+        <v>-0.05919056313448343</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C19" s="5" t="n">
+        <v>-1.699426854696826</v>
+      </c>
+      <c r="D19" s="5" t="n">
+        <v>-0.301505240148589</v>
+      </c>
+      <c r="E19" s="5" t="n">
+        <v>-8.072468171231147</v>
+      </c>
+      <c r="F19" s="5" t="n">
+        <v>-10.47843544353193</v>
+      </c>
+      <c r="G19" s="6" t="n">
+        <v>-0.1426010406169211</v>
+      </c>
+      <c r="H19" s="6" t="n">
+        <v>-0.1338477368647071</v>
+      </c>
+      <c r="I19" s="6" t="n">
+        <v>-0.4236259079099289</v>
+      </c>
+      <c r="J19" s="6" t="n">
+        <v>-0.3312655342973995</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="n">
+        <v>-16.9426509181133</v>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>-7.085245630541266</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>-24.06315715814356</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>-29.67022280394271</v>
+      </c>
+      <c r="G20" s="6" t="n">
+        <v>-0.8585039843457499</v>
+      </c>
+      <c r="H20" s="6" t="inlineStr"/>
+      <c r="I20" s="6" t="n">
+        <v>-0.8375540401596798</v>
+      </c>
+      <c r="J20" s="6" t="n">
+        <v>-0.7086313206145158</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C21" s="5" t="n">
+        <v>10.61087570708959</v>
+      </c>
+      <c r="D21" s="5" t="n">
+        <v>4.108169745305918</v>
+      </c>
+      <c r="E21" s="5" t="n">
+        <v>7.809499043616828</v>
+      </c>
+      <c r="F21" s="5" t="n">
+        <v>9.76901554249987</v>
+      </c>
+      <c r="G21" s="6" t="n">
+        <v>1.958377102707232</v>
+      </c>
+      <c r="H21" s="6" t="inlineStr"/>
+      <c r="I21" s="6" t="n">
+        <v>1.223292235864283</v>
+      </c>
+      <c r="J21" s="6" t="n">
+        <v>0.4684505811641946</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="n">
+        <v>-3.686939713180651</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>-3.060399654725696</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>0.038305065691141</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>-6.194439559115566</v>
+      </c>
+      <c r="G22" s="6" t="n">
+        <v>-0.2034109481257718</v>
+      </c>
+      <c r="H22" s="6" t="n">
+        <v>-0.2876576832148273</v>
+      </c>
+      <c r="I22" s="6" t="n">
+        <v>0.0011711645181737</v>
+      </c>
+      <c r="J22" s="6" t="n">
+        <v>-0.1528039206496339</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="n">
+        <v>-8.95877426868244</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>-8.163972901692294</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>-7.654381994100799</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>-14.06616342603085</v>
+      </c>
+      <c r="G23" s="6" t="n">
+        <v>-0.421743998003621</v>
+      </c>
+      <c r="H23" s="6" t="n">
+        <v>-0.5755208503035394</v>
+      </c>
+      <c r="I23" s="6" t="n">
+        <v>-0.2085257845682623</v>
+      </c>
+      <c r="J23" s="6" t="n">
+        <v>-0.3144645872294835</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="n">
+        <v>1.856461239250557</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>1.182345536525879</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>7.114158817934419</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>1.729647065425894</v>
+      </c>
+      <c r="G24" s="6" t="n">
+        <v>0.1279783126562328</v>
+      </c>
+      <c r="H24" s="6" t="n">
+        <v>0.1677776690309981</v>
+      </c>
+      <c r="I24" s="6" t="n">
+        <v>0.2527214380480725</v>
+      </c>
+      <c r="J24" s="6" t="n">
+        <v>0.04476755946026036</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
@@ -1316,16 +1311,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
